--- a/data/trans_dic/P70B_R_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R_2023-Edad-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.7482304537342364</v>
+        <v>0.7482304537342361</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.8776207283964663</v>
+        <v>0.8776207283964664</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.8094768640406604</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5875904153883472</v>
+        <v>0.5847956592646582</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7772186074249713</v>
+        <v>0.7707086120604189</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7121539756202061</v>
+        <v>0.7085934696356603</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.866851598707969</v>
+        <v>0.8758055209007731</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9485540149593129</v>
+        <v>0.945325747151277</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8879988593830135</v>
+        <v>0.8836492087063644</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8100407244960826</v>
+        <v>0.8098884378900685</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8103724862362642</v>
+        <v>0.8105184521264124</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8231104270709847</v>
+        <v>0.8251446829593595</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.904497374902709</v>
+        <v>0.9032540720080344</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8907212225136165</v>
+        <v>0.8931530693163189</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8904519897469668</v>
+        <v>0.8914061772905317</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.8433188021006673</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8317579737111025</v>
+        <v>0.8317579737111024</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8384017066483117</v>
+        <v>0.8384017066483118</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.808321466436277</v>
+        <v>0.8074649029364819</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.799178352433514</v>
+        <v>0.7963733141537991</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8133129049418204</v>
+        <v>0.8151399962577733</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8723631601388688</v>
+        <v>0.8744227004033852</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8632702261000845</v>
+        <v>0.8613034628193723</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8612805811821127</v>
+        <v>0.8604437219774768</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8645091458321371</v>
+        <v>0.864509145832137</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8576824761236347</v>
+        <v>0.8576824761236346</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8614025848155044</v>
+        <v>0.8614025848155045</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.832459666069967</v>
+        <v>0.8291503411467758</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8262398006552526</v>
+        <v>0.8301750757310229</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8409324864425095</v>
+        <v>0.8411303952878124</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8943034469575014</v>
+        <v>0.8927470069274211</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8826914957193936</v>
+        <v>0.8823548344766109</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8820576748572575</v>
+        <v>0.8820518403856786</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.8731381661565993</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.8745107742216316</v>
+        <v>0.8745107742216315</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8737056486274084</v>
+        <v>0.8737056486274086</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8374192870013338</v>
+        <v>0.8377913152858752</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8365474062994849</v>
+        <v>0.839317622760512</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8472764470196045</v>
+        <v>0.8486848414018262</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9052398563693379</v>
+        <v>0.9056726315537043</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9034189092493239</v>
+        <v>0.9076413564303459</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.895897790073273</v>
+        <v>0.896592215574514</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.8534072221580519</v>
+        <v>0.8534072221580518</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.8543237660079956</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.8538098269486738</v>
+        <v>0.8538098269486737</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8355634403682625</v>
+        <v>0.8312249950915455</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8390089791455052</v>
+        <v>0.8370719079897947</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8408388002028917</v>
+        <v>0.8404760962591443</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8732497896453784</v>
+        <v>0.8713854235347742</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8706481504282749</v>
+        <v>0.8708875278386988</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8653235033909144</v>
+        <v>0.8658716525872107</v>
       </c>
     </row>
     <row r="22">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>59978</v>
+        <v>59693</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>71304</v>
+        <v>70707</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>138028</v>
+        <v>137338</v>
       </c>
     </row>
     <row r="7">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>88484</v>
+        <v>89398</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>87023</v>
+        <v>86727</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>172110</v>
+        <v>171267</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>320711</v>
+        <v>320651</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>258675</v>
+        <v>258722</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>588627</v>
+        <v>590082</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>358109</v>
+        <v>357616</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>284323</v>
+        <v>285099</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>636784</v>
+        <v>637467</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>432070</v>
+        <v>431613</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>316163</v>
+        <v>315053</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>756492</v>
+        <v>758192</v>
       </c>
     </row>
     <row r="15">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>466303</v>
+        <v>467403</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>341518</v>
+        <v>340740</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>801109</v>
+        <v>800331</v>
       </c>
     </row>
     <row r="16">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>453407</v>
+        <v>451604</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>375798</v>
+        <v>377588</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>840502</v>
+        <v>840700</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>487090</v>
+        <v>486243</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>401474</v>
+        <v>401321</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>881606</v>
+        <v>881600</v>
       </c>
     </row>
     <row r="20">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>275849</v>
+        <v>275972</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>194226</v>
+        <v>194869</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>475814</v>
+        <v>476604</v>
       </c>
     </row>
     <row r="23">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>298190</v>
+        <v>298332</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>209752</v>
+        <v>210733</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>503118</v>
+        <v>503508</v>
       </c>
     </row>
     <row r="24">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1593073</v>
+        <v>1584801</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1253113</v>
+        <v>1250220</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2858976</v>
+        <v>2857743</v>
       </c>
     </row>
     <row r="27">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1664925</v>
+        <v>1661370</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1300368</v>
+        <v>1300725</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2942228</v>
+        <v>2944092</v>
       </c>
     </row>
     <row r="28">
